--- a/Profanir.xlsx
+++ b/Profanir.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgh06\Documents\Skóladót\HÍ\Tolvunarfraedi2\HD6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEE4F162-4C8C-403E-9AB3-550523C8F448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19315980-2A5C-49BD-ADF8-849AE7769285}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BE7B299F-60FE-46C3-AD0D-C1C1F5FBE21B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>sort1</t>
   </si>
@@ -289,37 +289,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2E-3</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10199999999999999</c:v>
+                  <c:v>8.3000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39600000000000002</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26200000000000001</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23</c:v>
+                  <c:v>0.314</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47399999999999998</c:v>
+                  <c:v>0.47499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.113</c:v>
+                  <c:v>1.081</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8420000000000001</c:v>
+                  <c:v>2.4750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1140000000000008</c:v>
+                  <c:v>5.9889999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1273,7 +1273,9 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3202,8 +3204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114048B7-BB85-4474-AC35-DF0BF06038DE}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="78" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3233,7 +3235,7 @@
         <v>6400</v>
       </c>
       <c r="B2">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C2">
         <v>6.0000000000000001E-3</v>
@@ -3256,7 +3258,7 @@
         <v>128000</v>
       </c>
       <c r="B3">
-        <v>0.01</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C3">
         <v>1.7999999999999999E-2</v>
@@ -3280,7 +3282,7 @@
         <v>256000</v>
       </c>
       <c r="B4">
-        <v>1.7000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="C4">
         <v>1.4E-2</v>
@@ -3304,7 +3306,7 @@
         <v>512000</v>
       </c>
       <c r="B5">
-        <v>0.10199999999999999</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="C5">
         <v>2.1999999999999999E-2</v>
@@ -3328,7 +3330,7 @@
         <v>1024000</v>
       </c>
       <c r="B6">
-        <v>0.39600000000000002</v>
+        <v>0.17</v>
       </c>
       <c r="C6">
         <v>0.05</v>
@@ -3352,7 +3354,7 @@
         <v>2048000</v>
       </c>
       <c r="B7">
-        <v>0.26200000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="C7">
         <v>0.121</v>
@@ -3370,7 +3372,7 @@
         <v>4096000</v>
       </c>
       <c r="B8">
-        <v>0.23</v>
+        <v>0.314</v>
       </c>
       <c r="C8">
         <v>0.312</v>
@@ -3388,7 +3390,7 @@
         <v>8192000</v>
       </c>
       <c r="B9">
-        <v>0.47399999999999998</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C9">
         <v>0.79</v>
@@ -3406,7 +3408,7 @@
         <v>16384000</v>
       </c>
       <c r="B10">
-        <v>1.113</v>
+        <v>1.081</v>
       </c>
       <c r="C10">
         <v>2.0169999999999999</v>
@@ -3424,7 +3426,7 @@
         <v>32768000</v>
       </c>
       <c r="B11">
-        <v>2.8420000000000001</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="C11">
         <v>5.2409999999999997</v>
@@ -3442,7 +3444,7 @@
         <v>65536000</v>
       </c>
       <c r="B12">
-        <v>8.1140000000000008</v>
+        <v>5.9889999999999999</v>
       </c>
       <c r="C12">
         <v>13.36</v>
@@ -3621,6 +3623,9 @@
       <c r="D35" t="s">
         <v>3</v>
       </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
@@ -3632,9 +3637,6 @@
       <c r="C36">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D36">
-        <v>5.0000000000000001E-3</v>
-      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
@@ -3646,9 +3648,6 @@
       <c r="C37">
         <v>2E-3</v>
       </c>
-      <c r="D37">
-        <v>2E-3</v>
-      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
@@ -3659,9 +3658,6 @@
       </c>
       <c r="C38">
         <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D38">
-        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -3675,9 +3671,6 @@
       <c r="C39">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D39">
-        <v>7.0000000000000001E-3</v>
-      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
@@ -3690,9 +3683,6 @@
       <c r="C40">
         <v>1.2E-2</v>
       </c>
-      <c r="D40">
-        <v>1.4999999999999999E-2</v>
-      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
@@ -3705,9 +3695,6 @@
       <c r="C41">
         <v>2.4E-2</v>
       </c>
-      <c r="D41">
-        <v>6.8000000000000005E-2</v>
-      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
@@ -3720,9 +3707,6 @@
       <c r="C42">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="D42">
-        <v>0.13800000000000001</v>
-      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
@@ -3735,9 +3719,6 @@
       <c r="C43">
         <v>0.16200000000000001</v>
       </c>
-      <c r="D43">
-        <v>5.7000000000000002E-2</v>
-      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
@@ -3750,9 +3731,6 @@
       <c r="C44">
         <v>0.34799999999999998</v>
       </c>
-      <c r="D44">
-        <v>5.8999999999999997E-2</v>
-      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
@@ -3765,9 +3743,6 @@
       <c r="C45">
         <v>0.72399999999999998</v>
       </c>
-      <c r="D45">
-        <v>0.125</v>
-      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
@@ -3780,9 +3755,6 @@
       <c r="C46">
         <v>1.603</v>
       </c>
-      <c r="D46">
-        <v>0.20499999999999999</v>
-      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
@@ -3794,9 +3766,6 @@
       </c>
       <c r="C47">
         <v>3.1669999999999998</v>
-      </c>
-      <c r="D47">
-        <v>0.42399999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
